--- a/src/test/resources/DataProvider/FetchData.xlsx
+++ b/src/test/resources/DataProvider/FetchData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\gitbuild-MyLocalRepository(1)\gitbuild-MyLocalRepository\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05150D19-48CC-42BD-8B9B-49B0FC6645F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F7086-F3E2-4784-88F3-A5F07A6408D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Account" r:id="rId5" sheetId="2"/>
+    <sheet name="Fleet" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,65 +38,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>MCE Customer ID</t>
   </si>
   <si>
-    <t>987897465</t>
+    <t>186819</t>
   </si>
   <si>
     <t>Registrant Type</t>
   </si>
   <si>
-    <t>S - Limited Partnership</t>
+    <t>C - Corporation</t>
   </si>
   <si>
     <t>Carrier Type</t>
   </si>
   <si>
-    <t>C - CARRIER</t>
+    <t>O - OTHER</t>
   </si>
   <si>
     <t>IFTA Account No.</t>
   </si>
   <si>
+    <t>Customer Status</t>
+  </si>
+  <si>
+    <t>A - ACTIVE</t>
+  </si>
+  <si>
+    <t>Business AddressStreet</t>
+  </si>
+  <si>
+    <t>77 S JAMES ST</t>
+  </si>
+  <si>
+    <t>Business AddressZip Code</t>
+  </si>
+  <si>
+    <t>64116</t>
+  </si>
+  <si>
+    <t>Business AddressJur</t>
+  </si>
+  <si>
+    <t>MO - MISSOURI</t>
+  </si>
+  <si>
+    <t>Business AddressCity</t>
+  </si>
+  <si>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>Business AddressCounty</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Customer Status</t>
-  </si>
-  <si>
-    <t>A - ACTIVE</t>
-  </si>
-  <si>
-    <t>Business AddressStreet</t>
-  </si>
-  <si>
-    <t>77 S JAMES ST</t>
-  </si>
-  <si>
-    <t>Business AddressZip Code</t>
-  </si>
-  <si>
-    <t>64116</t>
-  </si>
-  <si>
-    <t>Business AddressJur</t>
-  </si>
-  <si>
-    <t>MO - MISSOURI</t>
-  </si>
-  <si>
-    <t>Business AddressCity</t>
-  </si>
-  <si>
-    <t>KANSAS CITY</t>
-  </si>
-  <si>
-    <t>Business AddressCounty</t>
-  </si>
-  <si>
     <t>Business AddressCountry</t>
   </si>
   <si>
@@ -138,7 +139,7 @@
     <t>TPID</t>
   </si>
   <si>
-    <t>440648226</t>
+    <t>812319285</t>
   </si>
   <si>
     <t>Contact Name</t>
@@ -147,6 +148,9 @@
     <t>AMBER WOODROME</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>TEST@CELTIC.COM</t>
   </si>
   <si>
@@ -175,6 +179,30 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>nullnull</t>
+  </si>
+  <si>
+    <t>Fleet Status</t>
+  </si>
+  <si>
+    <t>O-OTHER</t>
+  </si>
+  <si>
+    <t>DBA Name</t>
+  </si>
+  <si>
+    <t>SUCCESS NATIONALEASE</t>
+  </si>
+  <si>
+    <t>Business AddressNon Deliverable Address</t>
+  </si>
+  <si>
+    <t>Mailing AddressNon Deliverable Address</t>
+  </si>
+  <si>
+    <t>Service ProviderService Provider</t>
   </si>
 </sst>
 </file>
@@ -507,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,22 +555,22 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -577,21 +605,23 @@
       <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="V1"/>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -605,25 +635,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -632,13 +662,13 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -647,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
@@ -659,23 +689,118 @@
         <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
